--- a/Industry/201612-201908/HKD/MILLION/Analysis_107_11 - Giftware_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_107_11 - Giftware_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1152" yWindow="1152"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -40929,6 +40930,3909 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="11"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="9"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="11"/>
+    <col bestFit="1" customWidth="1" max="8" min="7" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="9"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="n">
+        <v>148914.371</v>
+      </c>
+      <c r="C2" t="n">
+        <v>144561.592</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.923</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97891.227</v>
+      </c>
+      <c r="F2" t="n">
+        <v>153337.289</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.071</v>
+      </c>
+      <c r="H2" t="n">
+        <v>107572.66</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="n">
+        <v>40897.043</v>
+      </c>
+      <c r="C3" t="n">
+        <v>41889.98</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.428</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30743.21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>48096.505</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.816</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34829.516</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.292</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27.463</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28.977</v>
+      </c>
+      <c r="L3" t="n">
+        <v>31.405</v>
+      </c>
+      <c r="M3" t="n">
+        <v>31.366</v>
+      </c>
+      <c r="N3" t="n">
+        <v>32.378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31370.975</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30069.358</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.149</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18494.553</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28924.535</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-3.807</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18057.917</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2.361</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21.066</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18.893</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18.863</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16.787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25058.329</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23011.097</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-8.17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13579.359</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20928.927</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-9.048999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12679.781</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-6.625</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16.827</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.918</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.872</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.649</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2772.043</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2298.674</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-17.077</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4379.033</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8779.389999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>281.933</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11105.925</v>
+      </c>
+      <c r="I6" t="n">
+        <v>153.616</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.473</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.726</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8574.366</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8150.458</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-4.944</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5985.051</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9026.578</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.749</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6238.88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.241</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.758</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.638</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.114</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7077.235</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6958.556</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.677</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4472.353</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6688.745</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-3.877</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3951.462</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-11.647</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.753</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.814</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.569</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.362</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6570.866</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6929.139</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.452</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4077.901</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6094.958</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-12.039</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3695.973</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-9.366</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.413</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.793</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.166</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.975</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4198.344</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4614.775</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.919</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3334.666</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5254.313</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.858</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3541.362</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.198</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.819</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.192</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.407</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.427</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4494.121</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3994.996</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-11.106</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2517.654</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3783.363</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-5.297</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2430.482</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-3.462</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.764</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.572</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2149.685</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1720.925</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-19.945</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1218.47</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1997.134</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1606.763</v>
+      </c>
+      <c r="I12" t="n">
+        <v>31.867</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1553.79</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1601.638</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="E13" t="n">
+        <v>957.968</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1412.214</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-11.827</v>
+      </c>
+      <c r="H13" t="n">
+        <v>925.384</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-3.401</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.108</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="n">
+        <v>443.393</v>
+      </c>
+      <c r="C14" t="n">
+        <v>514.38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E14" t="n">
+        <v>441.076</v>
+      </c>
+      <c r="F14" t="n">
+        <v>781.367</v>
+      </c>
+      <c r="G14" t="n">
+        <v>51.905</v>
+      </c>
+      <c r="H14" t="n">
+        <v>895.751</v>
+      </c>
+      <c r="I14" t="n">
+        <v>103.083</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1051.674</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1052.528</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="E15" t="n">
+        <v>871.1660000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1197.794</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.802</v>
+      </c>
+      <c r="H15" t="n">
+        <v>847.554</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.71</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1105.454</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1106.869</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>645.662</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1005.463</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-9.161</v>
+      </c>
+      <c r="H16" t="n">
+        <v>628.569</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2.647</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1512.44</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1369.106</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-9.477</v>
+      </c>
+      <c r="E17" t="n">
+        <v>714.806</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1112.29</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-18.758</v>
+      </c>
+      <c r="H17" t="n">
+        <v>596.181</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-16.595</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9.981</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.871</v>
+      </c>
+      <c r="D18" t="n">
+        <v>209.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.066000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.486000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-69.27200000000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>549.831</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6716.491</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" t="n">
+        <v>875.034</v>
+      </c>
+      <c r="C19" t="n">
+        <v>838.84</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-4.136</v>
+      </c>
+      <c r="E19" t="n">
+        <v>413.078</v>
+      </c>
+      <c r="F19" t="n">
+        <v>722.005</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-13.928</v>
+      </c>
+      <c r="H19" t="n">
+        <v>373.221</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-9.648999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" t="n">
+        <v>668.2809999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>513.641</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-23.14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>313.182</v>
+      </c>
+      <c r="F20" t="n">
+        <v>466.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-9.129</v>
+      </c>
+      <c r="H20" t="n">
+        <v>325.998</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" t="n">
+        <v>525.152</v>
+      </c>
+      <c r="C21" t="n">
+        <v>446.763</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-14.927</v>
+      </c>
+      <c r="E21" t="n">
+        <v>237.443</v>
+      </c>
+      <c r="F21" t="n">
+        <v>364.932</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-18.317</v>
+      </c>
+      <c r="H21" t="n">
+        <v>320.166</v>
+      </c>
+      <c r="I21" t="n">
+        <v>34.839</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" t="n">
+        <v>589.4400000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>552.463</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-6.273</v>
+      </c>
+      <c r="E22" t="n">
+        <v>328.686</v>
+      </c>
+      <c r="F22" t="n">
+        <v>517.373</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-6.352</v>
+      </c>
+      <c r="H22" t="n">
+        <v>274.619</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-16.45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" t="n">
+        <v>683.0890000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>631.37</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-7.571</v>
+      </c>
+      <c r="E23" t="n">
+        <v>287.39</v>
+      </c>
+      <c r="F23" t="n">
+        <v>386.114</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-38.845</v>
+      </c>
+      <c r="H23" t="n">
+        <v>248.408</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-13.564</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" t="n">
+        <v>433.09</v>
+      </c>
+      <c r="C24" t="n">
+        <v>398.163</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-8.065</v>
+      </c>
+      <c r="E24" t="n">
+        <v>219.651</v>
+      </c>
+      <c r="F24" t="n">
+        <v>355.324</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-10.759</v>
+      </c>
+      <c r="H24" t="n">
+        <v>227.263</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.465</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" t="n">
+        <v>362.99</v>
+      </c>
+      <c r="C25" t="n">
+        <v>357.062</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.633</v>
+      </c>
+      <c r="E25" t="n">
+        <v>230.607</v>
+      </c>
+      <c r="F25" t="n">
+        <v>325.469</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-8.848000000000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>217.384</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-5.734</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" t="n">
+        <v>509.218</v>
+      </c>
+      <c r="C26" t="n">
+        <v>412.882</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-18.918</v>
+      </c>
+      <c r="E26" t="n">
+        <v>231.276</v>
+      </c>
+      <c r="F26" t="n">
+        <v>347.441</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-15.85</v>
+      </c>
+      <c r="H26" t="n">
+        <v>207.168</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-10.424</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" t="n">
+        <v>274.033</v>
+      </c>
+      <c r="C27" t="n">
+        <v>259.081</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-5.456</v>
+      </c>
+      <c r="E27" t="n">
+        <v>176.608</v>
+      </c>
+      <c r="F27" t="n">
+        <v>289.191</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11.622</v>
+      </c>
+      <c r="H27" t="n">
+        <v>200.095</v>
+      </c>
+      <c r="I27" t="n">
+        <v>13.299</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" t="n">
+        <v>433.998</v>
+      </c>
+      <c r="C28" t="n">
+        <v>397.33</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-8.449</v>
+      </c>
+      <c r="E28" t="n">
+        <v>172.073</v>
+      </c>
+      <c r="F28" t="n">
+        <v>289.368</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-27.172</v>
+      </c>
+      <c r="H28" t="n">
+        <v>195.113</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" t="n">
+        <v>374.078</v>
+      </c>
+      <c r="C29" t="n">
+        <v>352.687</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-5.718</v>
+      </c>
+      <c r="E29" t="n">
+        <v>199.785</v>
+      </c>
+      <c r="F29" t="n">
+        <v>327.142</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-7.243</v>
+      </c>
+      <c r="H29" t="n">
+        <v>184.858</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-7.472</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" t="n">
+        <v>284.393</v>
+      </c>
+      <c r="C30" t="n">
+        <v>238.231</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-16.232</v>
+      </c>
+      <c r="E30" t="n">
+        <v>188.145</v>
+      </c>
+      <c r="F30" t="n">
+        <v>276.954</v>
+      </c>
+      <c r="G30" t="n">
+        <v>16.254</v>
+      </c>
+      <c r="H30" t="n">
+        <v>159.341</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-15.31</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31" t="n">
+        <v>331.188</v>
+      </c>
+      <c r="C31" t="n">
+        <v>320.417</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.252</v>
+      </c>
+      <c r="E31" t="n">
+        <v>149.084</v>
+      </c>
+      <c r="F31" t="n">
+        <v>218.881</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-31.689</v>
+      </c>
+      <c r="H31" t="n">
+        <v>147.919</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.782</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" t="n">
+        <v>294.186</v>
+      </c>
+      <c r="C32" t="n">
+        <v>196.671</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-33.147</v>
+      </c>
+      <c r="E32" t="n">
+        <v>117.207</v>
+      </c>
+      <c r="F32" t="n">
+        <v>190.958</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-2.905</v>
+      </c>
+      <c r="H32" t="n">
+        <v>146.859</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25.299</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" t="n">
+        <v>313.856</v>
+      </c>
+      <c r="C33" t="n">
+        <v>263.03</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-16.194</v>
+      </c>
+      <c r="E33" t="n">
+        <v>141.513</v>
+      </c>
+      <c r="F33" t="n">
+        <v>224.958</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-14.474</v>
+      </c>
+      <c r="H33" t="n">
+        <v>144.437</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" t="n">
+        <v>208.439</v>
+      </c>
+      <c r="C34" t="n">
+        <v>201.576</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-3.293</v>
+      </c>
+      <c r="E34" t="n">
+        <v>129.203</v>
+      </c>
+      <c r="F34" t="n">
+        <v>199.022</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1.267</v>
+      </c>
+      <c r="H34" t="n">
+        <v>123.746</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-4.223</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33.742</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14.616</v>
+      </c>
+      <c r="E35" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="F35" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-12.811</v>
+      </c>
+      <c r="H35" t="n">
+        <v>94.483</v>
+      </c>
+      <c r="I35" t="n">
+        <v>410.174</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B36" t="n">
+        <v>209.386</v>
+      </c>
+      <c r="C36" t="n">
+        <v>203.385</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-2.866</v>
+      </c>
+      <c r="E36" t="n">
+        <v>97.271</v>
+      </c>
+      <c r="F36" t="n">
+        <v>174.764</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-14.072</v>
+      </c>
+      <c r="H36" t="n">
+        <v>90.092</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-7.381</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" t="n">
+        <v>129.819</v>
+      </c>
+      <c r="C37" t="n">
+        <v>145.91</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12.395</v>
+      </c>
+      <c r="E37" t="n">
+        <v>77.054</v>
+      </c>
+      <c r="F37" t="n">
+        <v>107.428</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-26.374</v>
+      </c>
+      <c r="H37" t="n">
+        <v>80.298</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" t="n">
+        <v>127.816</v>
+      </c>
+      <c r="C38" t="n">
+        <v>117.767</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-7.862</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.98099999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>143.819</v>
+      </c>
+      <c r="G38" t="n">
+        <v>22.122</v>
+      </c>
+      <c r="H38" t="n">
+        <v>79.999</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-13.962</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B39" t="n">
+        <v>83.004</v>
+      </c>
+      <c r="C39" t="n">
+        <v>87.456</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.364</v>
+      </c>
+      <c r="E39" t="n">
+        <v>53.099</v>
+      </c>
+      <c r="F39" t="n">
+        <v>107.255</v>
+      </c>
+      <c r="G39" t="n">
+        <v>22.639</v>
+      </c>
+      <c r="H39" t="n">
+        <v>76.637</v>
+      </c>
+      <c r="I39" t="n">
+        <v>44.328</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B40" t="n">
+        <v>76.529</v>
+      </c>
+      <c r="C40" t="n">
+        <v>85.685</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11.965</v>
+      </c>
+      <c r="E40" t="n">
+        <v>52.883</v>
+      </c>
+      <c r="F40" t="n">
+        <v>88.54900000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="H40" t="n">
+        <v>64.744</v>
+      </c>
+      <c r="I40" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B41" t="n">
+        <v>128.246</v>
+      </c>
+      <c r="C41" t="n">
+        <v>101.203</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-21.087</v>
+      </c>
+      <c r="E41" t="n">
+        <v>65.61499999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>86.384</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-14.642</v>
+      </c>
+      <c r="H41" t="n">
+        <v>63.36</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-3.437</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B42" t="n">
+        <v>80.438</v>
+      </c>
+      <c r="C42" t="n">
+        <v>60.267</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-25.076</v>
+      </c>
+      <c r="E42" t="n">
+        <v>44.391</v>
+      </c>
+      <c r="F42" t="n">
+        <v>79.617</v>
+      </c>
+      <c r="G42" t="n">
+        <v>32.106</v>
+      </c>
+      <c r="H42" t="n">
+        <v>59.647</v>
+      </c>
+      <c r="I42" t="n">
+        <v>34.368</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B43" t="n">
+        <v>222.874</v>
+      </c>
+      <c r="C43" t="n">
+        <v>169.35</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-24.015</v>
+      </c>
+      <c r="E43" t="n">
+        <v>70.398</v>
+      </c>
+      <c r="F43" t="n">
+        <v>108.545</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-35.905</v>
+      </c>
+      <c r="H43" t="n">
+        <v>58.687</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-16.635</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" t="n">
+        <v>89.34399999999999</v>
+      </c>
+      <c r="C44" t="n">
+        <v>88.262</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-1.212</v>
+      </c>
+      <c r="E44" t="n">
+        <v>40.818</v>
+      </c>
+      <c r="F44" t="n">
+        <v>76.563</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-13.255</v>
+      </c>
+      <c r="H44" t="n">
+        <v>55.335</v>
+      </c>
+      <c r="I44" t="n">
+        <v>35.565</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B45" t="n">
+        <v>83.803</v>
+      </c>
+      <c r="C45" t="n">
+        <v>77.175</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="E45" t="n">
+        <v>54.613</v>
+      </c>
+      <c r="F45" t="n">
+        <v>96.40600000000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>24.919</v>
+      </c>
+      <c r="H45" t="n">
+        <v>49.125</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B46" t="n">
+        <v>96.66500000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>80.90300000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-16.306</v>
+      </c>
+      <c r="E46" t="n">
+        <v>54.742</v>
+      </c>
+      <c r="F46" t="n">
+        <v>71.411</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-11.732</v>
+      </c>
+      <c r="H46" t="n">
+        <v>48.83</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-10.799</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B47" t="n">
+        <v>69.696</v>
+      </c>
+      <c r="C47" t="n">
+        <v>53.945</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>47.307</v>
+      </c>
+      <c r="F47" t="n">
+        <v>61.951</v>
+      </c>
+      <c r="G47" t="n">
+        <v>14.841</v>
+      </c>
+      <c r="H47" t="n">
+        <v>43.202</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-8.678000000000001</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48" t="n">
+        <v>40.754</v>
+      </c>
+      <c r="C48" t="n">
+        <v>40.722</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="E48" t="n">
+        <v>47.788</v>
+      </c>
+      <c r="F48" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="G48" t="n">
+        <v>76.343</v>
+      </c>
+      <c r="H48" t="n">
+        <v>42.958</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-10.106</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B49" t="n">
+        <v>46.696</v>
+      </c>
+      <c r="C49" t="n">
+        <v>22.925</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-50.906</v>
+      </c>
+      <c r="E49" t="n">
+        <v>18.751</v>
+      </c>
+      <c r="F49" t="n">
+        <v>38.985</v>
+      </c>
+      <c r="G49" t="n">
+        <v>70.056</v>
+      </c>
+      <c r="H49" t="n">
+        <v>39.828</v>
+      </c>
+      <c r="I49" t="n">
+        <v>112.412</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" t="n">
+        <v>74.123</v>
+      </c>
+      <c r="C50" t="n">
+        <v>63.243</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-14.678</v>
+      </c>
+      <c r="E50" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="F50" t="n">
+        <v>51.96</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-17.84</v>
+      </c>
+      <c r="H50" t="n">
+        <v>39.502</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12.001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B51" t="n">
+        <v>43.979</v>
+      </c>
+      <c r="C51" t="n">
+        <v>41.542</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-5.542</v>
+      </c>
+      <c r="E51" t="n">
+        <v>39.198</v>
+      </c>
+      <c r="F51" t="n">
+        <v>73.441</v>
+      </c>
+      <c r="G51" t="n">
+        <v>76.78700000000001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" t="n">
+        <v>86.938</v>
+      </c>
+      <c r="C52" t="n">
+        <v>72.949</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-16.091</v>
+      </c>
+      <c r="E52" t="n">
+        <v>38.606</v>
+      </c>
+      <c r="F52" t="n">
+        <v>54.77</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-24.92</v>
+      </c>
+      <c r="H52" t="n">
+        <v>38.091</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-1.335</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.301</v>
+      </c>
+      <c r="C53" t="n">
+        <v>38.355</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2848.469</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13.024</v>
+      </c>
+      <c r="F53" t="n">
+        <v>13.966</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-63.586</v>
+      </c>
+      <c r="H53" t="n">
+        <v>37.468</v>
+      </c>
+      <c r="I53" t="n">
+        <v>187.676</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52.656</v>
+      </c>
+      <c r="C54" t="n">
+        <v>46.095</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-12.459</v>
+      </c>
+      <c r="E54" t="n">
+        <v>36.477</v>
+      </c>
+      <c r="F54" t="n">
+        <v>56.87</v>
+      </c>
+      <c r="G54" t="n">
+        <v>23.375</v>
+      </c>
+      <c r="H54" t="n">
+        <v>36.727</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B55" t="n">
+        <v>71.15900000000001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>61.252</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-13.922</v>
+      </c>
+      <c r="E55" t="n">
+        <v>43.656</v>
+      </c>
+      <c r="F55" t="n">
+        <v>61.686</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="H55" t="n">
+        <v>35.194</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-19.383</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B56" t="n">
+        <v>64.849</v>
+      </c>
+      <c r="C56" t="n">
+        <v>46.304</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-28.597</v>
+      </c>
+      <c r="E56" t="n">
+        <v>23.343</v>
+      </c>
+      <c r="F56" t="n">
+        <v>68.248</v>
+      </c>
+      <c r="G56" t="n">
+        <v>47.389</v>
+      </c>
+      <c r="H56" t="n">
+        <v>34.717</v>
+      </c>
+      <c r="I56" t="n">
+        <v>48.721</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B57" t="n">
+        <v>49.752</v>
+      </c>
+      <c r="C57" t="n">
+        <v>43.31</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-12.948</v>
+      </c>
+      <c r="E57" t="n">
+        <v>27.193</v>
+      </c>
+      <c r="F57" t="n">
+        <v>41.341</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-4.547</v>
+      </c>
+      <c r="H57" t="n">
+        <v>27.779</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.157</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B58" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="C58" t="n">
+        <v>50.231</v>
+      </c>
+      <c r="D58" t="n">
+        <v>20.574</v>
+      </c>
+      <c r="E58" t="n">
+        <v>19.395</v>
+      </c>
+      <c r="F58" t="n">
+        <v>32.146</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-36.004</v>
+      </c>
+      <c r="H58" t="n">
+        <v>26.888</v>
+      </c>
+      <c r="I58" t="n">
+        <v>38.631</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" t="n">
+        <v>314.639</v>
+      </c>
+      <c r="C59" t="n">
+        <v>82.479</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-73.786</v>
+      </c>
+      <c r="E59" t="n">
+        <v>55.818</v>
+      </c>
+      <c r="F59" t="n">
+        <v>88.33799999999999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>7.103</v>
+      </c>
+      <c r="H59" t="n">
+        <v>24.044</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-56.924</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" t="n">
+        <v>21.366</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10.813</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-49.393</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9.340999999999999</v>
+      </c>
+      <c r="F60" t="n">
+        <v>19.769</v>
+      </c>
+      <c r="G60" t="n">
+        <v>82.837</v>
+      </c>
+      <c r="H60" t="n">
+        <v>22.183</v>
+      </c>
+      <c r="I60" t="n">
+        <v>137.477</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" t="n">
+        <v>12.845</v>
+      </c>
+      <c r="C61" t="n">
+        <v>19.492</v>
+      </c>
+      <c r="D61" t="n">
+        <v>51.747</v>
+      </c>
+      <c r="E61" t="n">
+        <v>15.597</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20.788</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6.645</v>
+      </c>
+      <c r="H61" t="n">
+        <v>21.415</v>
+      </c>
+      <c r="I61" t="n">
+        <v>37.304</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B62" t="n">
+        <v>53.35</v>
+      </c>
+      <c r="C62" t="n">
+        <v>55.968</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.907</v>
+      </c>
+      <c r="E62" t="n">
+        <v>57.409</v>
+      </c>
+      <c r="F62" t="n">
+        <v>74.66200000000001</v>
+      </c>
+      <c r="G62" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>20.741</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-63.872</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B63" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="C63" t="n">
+        <v>38.653</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="E63" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="F63" t="n">
+        <v>34.399</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-11.005</v>
+      </c>
+      <c r="H63" t="n">
+        <v>18.527</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-24.196</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64" t="n">
+        <v>266.211</v>
+      </c>
+      <c r="C64" t="n">
+        <v>564.5170000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>112.056</v>
+      </c>
+      <c r="E64" t="n">
+        <v>537.658</v>
+      </c>
+      <c r="F64" t="n">
+        <v>541.8579999999999</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-4.014</v>
+      </c>
+      <c r="H64" t="n">
+        <v>18.033</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-96.646</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B65" t="n">
+        <v>24.368</v>
+      </c>
+      <c r="C65" t="n">
+        <v>34.48</v>
+      </c>
+      <c r="D65" t="n">
+        <v>41.496</v>
+      </c>
+      <c r="E65" t="n">
+        <v>17.167</v>
+      </c>
+      <c r="F65" t="n">
+        <v>34.79</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="H65" t="n">
+        <v>16.065</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-6.416</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B66" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>13.349</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-31.891</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13.641</v>
+      </c>
+      <c r="F66" t="n">
+        <v>19.234</v>
+      </c>
+      <c r="G66" t="n">
+        <v>44.081</v>
+      </c>
+      <c r="H66" t="n">
+        <v>15.535</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13.884</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B67" t="n">
+        <v>29.532</v>
+      </c>
+      <c r="C67" t="n">
+        <v>15.519</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-47.451</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F67" t="n">
+        <v>12.578</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-18.952</v>
+      </c>
+      <c r="H67" t="n">
+        <v>10.567</v>
+      </c>
+      <c r="I67" t="n">
+        <v>18.742</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B68" t="n">
+        <v>21.744</v>
+      </c>
+      <c r="C68" t="n">
+        <v>24.622</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13.231</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8.441000000000001</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12.078</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-50.944</v>
+      </c>
+      <c r="H68" t="n">
+        <v>9.632999999999999</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14.118</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B69" t="n">
+        <v>19.479</v>
+      </c>
+      <c r="C69" t="n">
+        <v>78.55200000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>303.272</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.255</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12.254</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-84.40000000000001</v>
+      </c>
+      <c r="H69" t="n">
+        <v>9.257999999999999</v>
+      </c>
+      <c r="I69" t="n">
+        <v>117.581</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="C70" t="n">
+        <v>14.251</v>
+      </c>
+      <c r="D70" t="n">
+        <v>16.711</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.761</v>
+      </c>
+      <c r="F70" t="n">
+        <v>11.882</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-16.621</v>
+      </c>
+      <c r="H70" t="n">
+        <v>8.228999999999999</v>
+      </c>
+      <c r="I70" t="n">
+        <v>21.722</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7.043</v>
+      </c>
+      <c r="C71" t="n">
+        <v>20.935</v>
+      </c>
+      <c r="D71" t="n">
+        <v>197.237</v>
+      </c>
+      <c r="E71" t="n">
+        <v>9.503</v>
+      </c>
+      <c r="F71" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-34.556</v>
+      </c>
+      <c r="H71" t="n">
+        <v>7.212</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-24.115</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6.482</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.997</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-38.344</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.632</v>
+      </c>
+      <c r="F72" t="n">
+        <v>6.617</v>
+      </c>
+      <c r="G72" t="n">
+        <v>65.554</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5.205</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12.374</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B73" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="C73" t="n">
+        <v>14.837</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-3.279</v>
+      </c>
+      <c r="E73" t="n">
+        <v>6.985</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9.225</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-37.827</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4.137</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-40.769</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5.363</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="D74" t="n">
+        <v>39.422</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.505</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-39.747</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="I74" t="n">
+        <v>19.004</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B75" t="n">
+        <v>10.115</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7.732</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-23.558</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5.818</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-24.748</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2.714</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-30.782</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B76" t="n">
+        <v>9.464</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8.388999999999999</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-11.356</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.344</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-48.031</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.654</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-20.646</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="D77" t="n">
+        <v>95.449</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.384</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4.191</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I77" t="n">
+        <v>67.622</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6.219</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.774</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-39.313</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-40.394</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.452</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.962</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-33.454</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-9.678000000000001</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.567</v>
+      </c>
+      <c r="I79" t="n">
+        <v>41.672</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-84.624</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4.288</v>
+      </c>
+      <c r="G80" t="n">
+        <v>448.934</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-49.783</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5.541</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-44.187</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-27.24</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-20.844</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.577</v>
+      </c>
+      <c r="D82" t="n">
+        <v>277.007</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.358</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.953</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-45.396</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-27.786</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="D83" t="n">
+        <v>57.261</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="I83" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.018</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-18.925</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I84" t="n">
+        <v>4.636</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.138</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-25.995</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-40.911</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36.083</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="D86" t="n">
+        <v>160.541</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-53.656</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I86" t="n">
+        <v>388.483</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-28.372</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-56.432</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I87" t="n">
+        <v>33.377</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-90.67100000000001</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="G88" t="n">
+        <v>11679.767</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="10"/>
     <col bestFit="1" customWidth="1" max="3" min="3" width="11"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
